--- a/hiqu/HR/Performance Evaluation/December 2024/QA/Bilal Raja.xlsx
+++ b/hiqu/HR/Performance Evaluation/December 2024/QA/Bilal Raja.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\December 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E3A5E-0437-4D8E-9F63-6EECAA7CAB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF8D32-128F-4625-8F38-A3583BFDE11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Ealuations" sheetId="3" r:id="rId2"/>
     <sheet name="Consolidated" sheetId="5" r:id="rId3"/>
-    <sheet name="November 2024" sheetId="6" r:id="rId4"/>
-    <sheet name="October 2024" sheetId="4" r:id="rId5"/>
-    <sheet name="September 24" sheetId="1" r:id="rId6"/>
+    <sheet name="December 2024" sheetId="7" r:id="rId4"/>
+    <sheet name="November 2024" sheetId="6" r:id="rId5"/>
+    <sheet name="October 2024" sheetId="4" r:id="rId6"/>
+    <sheet name="September 24" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="136">
   <si>
     <t>Employee Name</t>
   </si>
@@ -431,6 +432,24 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>Period: December 2024</t>
+  </si>
+  <si>
+    <t>Client Profile: Media &gt; Flag to make the vendor inactive</t>
+  </si>
+  <si>
+    <t>Enhancement for Visual Indicators and Flighting Details in Place</t>
+  </si>
+  <si>
+    <t>AdTech Fee commission</t>
+  </si>
+  <si>
+    <t>Restrict Self Approval - Time and expense</t>
+  </si>
+  <si>
+    <t>Media Plan: Import/Export Flighting</t>
   </si>
 </sst>
 </file>
@@ -2035,436 +2054,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time Analysis</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.5774467818188367E-2"/>
-          <c:y val="0.14856481481481484"/>
-          <c:w val="0.86458749839855653"/>
-          <c:h val="0.60027668416447943"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Consolidated!$D$7:$L$7,Consolidated!$O$7,Consolidated!$O$7)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Mgmt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Training</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meetings</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Deployment</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Document</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Client Items</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>test Cases</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Analysis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Design</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Actual</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Consolidated!$D$43:$L$43,Consolidated!$O$43)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>193.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D78-4197-8DB2-86E25071F61F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="361252896"/>
-        <c:axId val="1571122272"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="361252896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1571122272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1571122272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="361252896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3020,525 +2610,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3566,47 +2637,6 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B3CC6B-BA3F-D912-7AFC-64369BB2845D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3942,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14:G21"/>
     </sheetView>
   </sheetViews>
@@ -4035,7 +3065,7 @@
       </c>
       <c r="C10" s="53">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.6767123287671233</v>
+        <v>1.832876712328767</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -5040,10 +4070,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D40C8A-7494-47FF-8E68-5E954D684C88}">
-  <dimension ref="A2:W44"/>
+  <dimension ref="A2:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,7 +4304,7 @@
       <c r="L9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="51">
         <f>IF(N9&gt;0,N9-O9,0)</f>
@@ -5279,7 +4312,7 @@
       </c>
       <c r="R9" s="50">
         <f>D9+E9+F9+G9+H9+I9+J9+K9+L9+O9</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -5303,11 +4336,11 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="51">
-        <f t="shared" ref="P10:P41" si="0">IF(N10&gt;0,N10-O10,0)</f>
+        <f t="shared" ref="P10:P46" si="0">IF(N10&gt;0,N10-O10,0)</f>
         <v>0</v>
       </c>
       <c r="R10" s="50">
-        <f t="shared" ref="R10:R41" si="1">D10+E10+F10+G10+H10+I10+J10+K10+L10+O10</f>
+        <f t="shared" ref="R10:R46" si="1">D10+E10+F10+G10+H10+I10+J10+K10+L10+O10</f>
         <v>0</v>
       </c>
       <c r="T10" s="2"/>
@@ -5503,7 +4536,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
@@ -5532,7 +4565,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="1" t="s">
         <v>85</v>
@@ -5563,7 +4596,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="1" t="s">
         <v>86</v>
@@ -5594,7 +4627,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>118</v>
       </c>
@@ -5623,7 +4656,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="1" t="s">
         <v>119</v>
@@ -5640,21 +4673,23 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2">
+        <v>34.5</v>
+      </c>
       <c r="P21" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="50">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>37.5</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="C22" s="1" t="s">
         <v>120</v>
@@ -5685,7 +4720,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>121</v>
@@ -5716,7 +4751,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>122</v>
@@ -5733,21 +4768,23 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2">
+        <v>24</v>
+      </c>
       <c r="P24" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24" s="50">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>123</v>
@@ -5778,7 +4815,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="1" t="s">
         <v>117</v>
@@ -5812,353 +4849,316 @@
       <c r="V26" s="40"/>
       <c r="W26" s="42"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="39"/>
+      <c r="C27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40">
+        <v>5</v>
+      </c>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="42"/>
+    </row>
+    <row r="28" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="39"/>
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40">
+        <v>1</v>
+      </c>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="42"/>
+    </row>
+    <row r="29" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="39"/>
+      <c r="C29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="46">
+        <v>3</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40">
+        <v>22</v>
+      </c>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="42"/>
+    </row>
+    <row r="30" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
+      <c r="C30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40">
+        <v>5</v>
+      </c>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="42"/>
+    </row>
+    <row r="31" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40">
+        <v>2</v>
+      </c>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="42"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="7"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2">
-        <v>24</v>
-      </c>
-      <c r="P28" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="50">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="7"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="50">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="7"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2">
-        <v>6</v>
-      </c>
-      <c r="P30" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="50">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="7"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>14</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="50">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="7"/>
-    </row>
-    <row r="32" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46">
-        <v>6</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="41"/>
       <c r="R32" s="50">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="S32" s="41"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="42"/>
-    </row>
-    <row r="33" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
       <c r="C33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="2">
-        <v>10</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2">
-        <v>2</v>
-      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="5"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="P33" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="41"/>
       <c r="R33" s="50">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="S33" s="41"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="42"/>
-    </row>
-    <row r="34" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>13</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="41"/>
       <c r="R34" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="41"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="42"/>
-    </row>
-    <row r="35" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
       <c r="C35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46">
-        <v>2</v>
-      </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
+        <v>89</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2">
+        <v>6</v>
+      </c>
       <c r="P35" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="41"/>
       <c r="R35" s="50">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S35" s="41"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="42"/>
-    </row>
-    <row r="36" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+        <v>6</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="7"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
       <c r="C36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46">
-        <v>7</v>
-      </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46">
-        <v>57</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>14</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="41"/>
       <c r="R36" s="50">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="S36" s="41"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="42"/>
+        <v>14</v>
+      </c>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="7"/>
     </row>
     <row r="37" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D37" s="46"/>
-      <c r="E37" s="46">
-        <v>6.5</v>
-      </c>
+      <c r="E37" s="46"/>
       <c r="F37" s="46"/>
       <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
+      <c r="H37" s="46">
+        <v>6</v>
+      </c>
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
@@ -6173,7 +5173,7 @@
       <c r="Q37" s="41"/>
       <c r="R37" s="50">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="S37" s="41"/>
       <c r="T37" s="40"/>
@@ -6185,24 +5185,26 @@
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D38" s="46"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="46">
-        <v>44</v>
-      </c>
+      <c r="F38" s="46"/>
       <c r="G38" s="46"/>
-      <c r="H38" s="46">
-        <v>4</v>
-      </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
+      <c r="H38" s="2">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2">
+        <v>2</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2">
+        <v>15</v>
+      </c>
       <c r="P38" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6210,7 +5212,7 @@
       <c r="Q38" s="41"/>
       <c r="R38" s="50">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="S38" s="41"/>
       <c r="T38" s="40"/>
@@ -6220,10 +5222,10 @@
     </row>
     <row r="39" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
@@ -6231,15 +5233,11 @@
       <c r="H39" s="46"/>
       <c r="I39" s="46"/>
       <c r="J39" s="46"/>
-      <c r="K39" s="46">
-        <v>76</v>
-      </c>
+      <c r="K39" s="46"/>
       <c r="L39" s="46"/>
       <c r="M39" s="49"/>
       <c r="N39" s="46"/>
-      <c r="O39" s="46">
-        <v>25.5</v>
-      </c>
+      <c r="O39" s="46"/>
       <c r="P39" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6247,7 +5245,7 @@
       <c r="Q39" s="41"/>
       <c r="R39" s="50">
         <f t="shared" si="1"/>
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="S39" s="41"/>
       <c r="T39" s="40"/>
@@ -6259,16 +5257,14 @@
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D40" s="46"/>
-      <c r="E40" s="46">
-        <v>6</v>
-      </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46">
-        <v>5</v>
-      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46">
+        <v>2</v>
+      </c>
+      <c r="G40" s="46"/>
       <c r="H40" s="46"/>
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
@@ -6284,7 +5280,7 @@
       <c r="Q40" s="41"/>
       <c r="R40" s="50">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="40"/>
@@ -6295,7 +5291,9 @@
     <row r="41" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="46"/>
@@ -6303,11 +5301,15 @@
       <c r="H41" s="46"/>
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="K41" s="46">
+        <v>7</v>
+      </c>
       <c r="L41" s="46"/>
       <c r="M41" s="49"/>
       <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
+      <c r="O41" s="46">
+        <v>62.5</v>
+      </c>
       <c r="P41" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6315,7 +5317,7 @@
       <c r="Q41" s="41"/>
       <c r="R41" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="S41" s="41"/>
       <c r="T41" s="40"/>
@@ -6323,84 +5325,261 @@
       <c r="V41" s="40"/>
       <c r="W41" s="42"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+    <row r="42" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46">
+        <v>6.5</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="50">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="S42" s="41"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="42"/>
+    </row>
+    <row r="43" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46">
+        <v>88.5</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46">
+        <v>4</v>
+      </c>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="50">
+        <f t="shared" si="1"/>
+        <v>92.5</v>
+      </c>
+      <c r="S43" s="41"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="42"/>
+    </row>
+    <row r="44" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46">
+        <v>78</v>
+      </c>
+      <c r="L44" s="46"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46">
+        <v>39.5</v>
+      </c>
+      <c r="P44" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="50">
+        <f t="shared" si="1"/>
+        <v>117.5</v>
+      </c>
+      <c r="S44" s="41"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="42"/>
+    </row>
+    <row r="45" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46">
+        <v>6</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46">
+        <v>5</v>
+      </c>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="50">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="S45" s="41"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="42"/>
+    </row>
+    <row r="46" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="41"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="42"/>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17">
-        <f t="shared" ref="D43:L43" si="2">SUM(D10:D41)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="C48" s="16"/>
+      <c r="D48" s="17">
+        <f t="shared" ref="D48:L48" si="2">SUM(D10:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F48" s="17">
         <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="G43" s="17">
+        <v>129.5</v>
+      </c>
+      <c r="G48" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H48" s="17">
         <f t="shared" si="2"/>
-        <v>36.5</v>
-      </c>
-      <c r="I43" s="17">
+        <v>39.5</v>
+      </c>
+      <c r="I48" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J48" s="17">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K48" s="17">
         <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="L43" s="17">
+        <v>106</v>
+      </c>
+      <c r="L48" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17">
-        <f>SUM(N10:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="17">
-        <f>SUM(O10:O42)</f>
-        <v>193.5</v>
-      </c>
-      <c r="P43" s="17">
-        <f>SUM(P10:P42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17">
-        <f>SUM(R10:R41)</f>
-        <v>448.5</v>
-      </c>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17">
-        <f>SUM(T10:T42)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="17">
-        <f>SUM(U10:U42)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="17">
-        <f>SUM(V10:V42)</f>
-        <v>0</v>
-      </c>
-      <c r="W43" s="17">
-        <f>SUM(W10:W42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17">
+        <f>SUM(N10:N47)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="17">
+        <f>SUM(O10:O47)</f>
+        <v>306.5</v>
+      </c>
+      <c r="P48" s="17">
+        <f>SUM(P10:P47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17">
+        <f>SUM(R10:R46)</f>
+        <v>573</v>
+      </c>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17">
+        <f>SUM(T10:T47)</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="17">
+        <f>SUM(U10:U47)</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="17">
+        <f>SUM(V10:V47)</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="17">
+        <f>SUM(W10:W47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:W2"/>
@@ -6411,16 +5590,15 @@
     <mergeCell ref="T6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A5E915-442A-4066-9D91-B78B2018DBFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EFB967-B0E7-4557-86FD-F176E7D4E119}">
   <dimension ref="A2:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:W4"/>
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6497,7 +5675,7 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -6647,6 +5825,1007 @@
       <c r="L9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="50">
+        <f t="shared" ref="P9:P30" si="0">IF(N9=0,0,N9-O9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="50">
+        <f>D9+E9+F9+G9+H9+I9+J9+K9+L9+O9</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="50">
+        <f t="shared" ref="R10:R30" si="1">D10+E10+F10+G10+H10+I10+J10+K10+L10+O10</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="P11" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="50">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>22</v>
+      </c>
+      <c r="P12" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="50">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
+        <v>22</v>
+      </c>
+      <c r="P15" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="50">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+      <c r="P16" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="P19" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="50">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="50">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2">
+        <v>14</v>
+      </c>
+      <c r="P21" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="50">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="39"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="41"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="42"/>
+    </row>
+    <row r="27" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="41"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="42"/>
+    </row>
+    <row r="28" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="41"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="42"/>
+    </row>
+    <row r="29" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="41"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="42"/>
+    </row>
+    <row r="30" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="41"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="42"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17">
+        <f>SUM(D8:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" ref="E32:L32" si="2">SUM(E8:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="2"/>
+        <v>30.5</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17">
+        <f>SUM(N8:N31)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="17">
+        <f>SUM(O8:O31)</f>
+        <v>112</v>
+      </c>
+      <c r="P32" s="17">
+        <f>SUM(P8:P31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17">
+        <f>SUM(R8:R31)</f>
+        <v>157.5</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17">
+        <f>SUM(T8:T31)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="17">
+        <f>SUM(U8:U31)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="17">
+        <f>SUM(V8:V31)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="17">
+        <f>SUM(W8:W31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+    </row>
+    <row r="35" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+    </row>
+    <row r="36" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="T6:W6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A5E915-442A-4066-9D91-B78B2018DBFB}">
+  <dimension ref="A2:W36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" style="5" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="5"/>
+    <col min="23" max="23" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="R6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="71"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="N7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
         <v>3</v>
       </c>
       <c r="P9" s="50">
@@ -7431,7 +7610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0255E5C-203F-41A3-9DD0-811F64512A02}">
   <dimension ref="A2:W33"/>
   <sheetViews>
@@ -8313,7 +8492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:W29"/>
   <sheetViews>
